--- a/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/instructions.xlsx
+++ b/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/instructions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="14100" yWindow="75" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,76 +24,73 @@
     <t>instructions_text</t>
   </si>
   <si>
-    <t xml:space="preserve">Witamy w eksperymencie!
+    <t>Witamy w eksperymencie!
 Badanie powinno zająć około 30 minut.
-Jeśli masz jakieś pytania, skontaktuj się z eksperymentatorem.
-</t>
-  </si>
-  <si>
-    <t>Wyobraź sobie, że jesteś ochroniarzem obserwującym niewłaściwe działania w firmie. Twoja praca wymaga ciągłego zwracania uwagi i szybkiego reagowania, gdy dzieje się coś podejrzanego.
+Jeśli masz jakieś pytania, skontaktuj się z eksperymentatorem.</t>
+  </si>
+  <si>
+    <t>Przedmiot docelowy pojawi się losowo kilka razy w trakcie eksperymentu. Element docelowy może pojawić się jako obraz lub nazwa. Należy więc zawsze zwracać uwagę i skupiać się na ekranie, ponieważ nigdy nie wiadomo, kiedy pojawi się element docelowy. 
+Wiele elementów wypełniających, które wybraliśmy z naszej puli bodźców, zostanie również pokazanych losowo, aby zadanie było trudniejsze. Tymi rozpraszaczami są zarówno zdjęcia, jak i słowa, które zostały losowo wybrane z naszej kolekcji. 
+Czasami na ekranie pojawiają się jednocześnie dwa obrazy, a czasem tylko jeden obraz. Pamiętaj, aby nacisnąć spację tylko wtedy, gdy pojawi się cel.  
+Cel może pojawić się również w dowolnym miejscu na ekranie, a także może pojawić się z innymi obrazami. Więc gdy zobaczysz docelowy obraz lub nazwę w dowolnym miejscu na ekranie, naciśnij spację. 
+Naciśnij spację, aby kontynuować.</t>
+  </si>
+  <si>
+    <t>Wyobraź sobie, że jesteś ochroniarzem obserwującym niewłaściwe działania w firmie. Twoja praca wymaga ciągłego zwracania uwagi i szybkiego reagowania, gdy dzieje się coś podejrzanego. 
 W naszym laboratorium badamy uwagę i szybkie reagowanie, a w tym eksperymencie zostaniesz poproszony o odegranie roli ochroniarza.
 W szczególności będziesz uczestniczył w obserwacji wielu elementów prezentowanych na ekranie komputera i będziesz reagować tak szybko, jak to możliwe, gdy element docelowy pojawi się po naciśnięciu spacji.
-Naciśnij spację, aby kontynuować</t>
-  </si>
-  <si>
-    <t>Przedmiot docelowy pojawi się losowo kilka razy w trakcie eksperymentu. Element docelowy może pojawić się jako obraz lub nazwa. Należy więc zawsze zwracać uwagę i skupiać się na ekranie, ponieważ nigdy nie wiadomo, kiedy pojawi się element docelowy.
-Wiele elementów wypełniających, które wybraliśmy z naszej puli bodźców, zostanie również pokazanych losowo, aby zadanie było trudniejsze. Tymi rozpraszaczami są zarówno zdjęcia, jak i słowa, które zostały losowo wybrane z naszej kolekcji.
-Czasami na ekranie pojawiają się jednocześnie dwa obrazy, a czasem tylko jeden obraz. Pamiętaj, aby nacisnąć spację tylko wtedy, gdy pojawi się cel.
-Cel może pojawić się również w dowolnym miejscu na ekranie, a także może pojawić się z innymi obrazami. Więc gdy zobaczysz docelowy obraz lub nazwę w dowolnym miejscu na ekranie, naciśnij spację.
-Naciśnij spację, aby kontynuować.</t>
-  </si>
-  <si>
-    <t>Przedmioty będą wyświetlane szybko, więc upewnij się, że kiedy zobaczysz stworzenie docelowe, uderzysz spację, zanim ono zniknie.
-Pamiętaj, aby zwracać szczególną uwagę podczas eksperymentu, byś mógł odpowiedzieć tak szybko i dokładnie, jak to możliwe.
-Będzie pięć oddzielnych zadań śledzenia, każde po około 4 minut.
+Naciśnij spację aby kontynuować</t>
+  </si>
+  <si>
+    <t>Przedmioty będą wyświetlane szybko, więc upewnij się, że kiedy zobaczysz stworzenie docelowe naciśniesz spację zanim ono zniknie.  
+Pamiętaj, aby zwracać szczególną uwagę podczas eksperymentu byś mógł odpowiedzieć tak szybko i dokładnie, jak to możliwe. 
+Będzie pięć oddzielnych zadań śledzenia, każde trwające około 4 minuty.
 Każde zadanie będzie miało inny cel, a wszystkie przedmioty docelowe będą stworzeniami z kreskówek.
 Naciśnij spację, aby kontynuować.</t>
   </si>
   <si>
-    <t>Następnie poprosimy cię o odpowiedź na kilka pytań.</t>
-  </si>
-  <si>
-    <t>Dla każdego z poniższych stwierdzeń proszę wskazać, w jakim stopniu dotyczą one Ciebie.
+    <t>Teraz poprosimy cię o odpowiedź na kilka pytań.</t>
+  </si>
+  <si>
+    <t>Dla każdego z poniższych stwierdzeń proszę wskazać w jakim stopniu dotyczą one Ciebie.
 Pamiętaj, że nie ma dobrych lub złych odpowiedzi.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dla każdego z poniższych stwierdzeń proszę wskazać, w jakim stopniu są one charakterystyczne dla Ciebie.
-Pamiętaj, że nie ma dobrych lub złych odpowiedzi.
-</t>
-  </si>
-  <si>
-    <t>Następnie otrzymasz 30 par stworzeń docelowych i wypełniających z zadań śledzenia, a my chcielibyśmy, abyś wskazał, który z nich bardziej Ci się podoba.
+    <t>Dla każdego z poniższych stwierdzeń proszę wskazać w jakim stopniu są one charakterystyczne dla Ciebie.
+Pamiętaj, że nie ma dobrych lub złych odpowiedzi.</t>
+  </si>
+  <si>
+    <t>Teraz zobaczysz 30 par stworzeń docelowych i wypełniających z zadań śledzenia, a my chcielibyśmy abyś wskazał, który z nich bardziej Ci się podoba.
 Nie musisz mieć powodu, aby lubić jedno czy drugie, po prostu podaj nam swoje odczucia.
-Chcemy wiedzieć, czy przyjemność lub nieprzyjemność tych bodźców wpływa na zdolność do uczestnictwa i szybkiego reagowania na nie, dlatego musimy wiedzieć, który wolisz.
-Pamiętaj, że nie potrzebujesz mieć powodu, aby lubić jedno, a nie drugie, więc po prostu kieruj się pierwszymi odczuciami. Odpowiadaj najszybciej jak to możliwe.
+Chcemy wiedzieć, czy przyjemność lub nieprzyjemność tych bodźców wpływa na zdolność do uczestnictwa i szybkiego reagowania na nie, dlatego musimy wiedzieć, który wolisz.  
+Pamiętaj, że nie potrzebujesz mieć powodu, aby lubić jedno a nie drugie, więc po prostu kieruj się pierwszymi odczuciami. Odpowiadaj najszybciej jak to możliwe.
+Naciśnij spację aby kontynuować.</t>
+  </si>
+  <si>
+    <t>Teraz zadamy ci kilka pytań, a później badanie się zakończy.
 Naciśnij spację, aby kontynuować.</t>
+  </si>
+  <si>
+    <t>To jest koniec eksperymentu.
+Naciśnij spację aby zakończyć.</t>
   </si>
   <si>
     <t>Połóż lewy palec na klawiszu E i prawy palec na klawiszu I.
 Jeśli wolisz stworzenie po lewej, naciśnij E.
 Jeśli wolisz stworzenie po prawej, naciśnij I.
-Naciśnij spację, aby kontynuować.</t>
-  </si>
-  <si>
-    <t>Na koniec zadamy ci niewielką liczbę pytań, a później badanie się zakończy.
-Naciśnij spację, aby kontynuować.</t>
-  </si>
-  <si>
-    <t>To jest koniec eksperymentu.
-Naciśnij spację, aby zakończyć.</t>
+Naciśnij spację aby kontynuować.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,48 +598,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akcent 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akcent 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Dobre" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutralne" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Tekst objaśnienia" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Złe" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,16 +950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -970,22 +967,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="75">
+    <row r="2" spans="1:1" ht="63">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="220" customHeight="1">
+    <row r="3" spans="1:1" ht="219.95" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="297" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="230" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="230.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -995,38 +992,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="45">
+    <row r="7" spans="1:1" ht="47.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="60">
+    <row r="8" spans="1:1" ht="47.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="195">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="120">
+    <row r="10" spans="1:1" ht="126">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="75" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="47.25">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="45">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
